--- a/tools/anssi/anssi-recommandations-securite-relatives-TLS.xlsx
+++ b/tools/anssi/anssi-recommandations-securite-relatives-TLS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="197">
   <si>
     <t>library_urn</t>
   </si>
@@ -33,7 +33,7 @@
     <t>library_ref_id</t>
   </si>
   <si>
-    <t>ANSSI</t>
+    <t>ANSSI-REC-TLS</t>
   </si>
   <si>
     <t>library_name</t>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>library_provider</t>
+  </si>
+  <si>
+    <t>ANSSI</t>
   </si>
   <si>
     <t>library_packager</t>
@@ -1950,7 +1953,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s" s="3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1958,10 +1961,10 @@
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1969,10 +1972,10 @@
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1980,7 +1983,7 @@
     </row>
     <row r="11" ht="13.55" customHeight="1">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="3">
         <v>6</v>
@@ -1991,7 +1994,7 @@
     </row>
     <row r="12" ht="13.55" customHeight="1">
       <c r="A12" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s" s="3">
         <v>8</v>
@@ -2002,10 +2005,10 @@
     </row>
     <row r="13" ht="53.55" customHeight="1">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s" s="6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -2013,26 +2016,26 @@
     </row>
     <row r="14" ht="13.55" customHeight="1">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" ht="13.55" customHeight="1">
       <c r="A15" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -2066,25 +2069,25 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1">
       <c r="A1" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="B1" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s" s="9">
-        <v>25</v>
-      </c>
       <c r="D1" t="s" s="9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s" s="10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" ht="48" customHeight="1">
@@ -2094,32 +2097,32 @@
       </c>
       <c r="C2" s="11"/>
       <c r="D2" t="s" s="13">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s" s="13">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
     </row>
     <row r="3" ht="48" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" s="15">
         <v>2</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s" s="6">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3" s="16"/>
     </row>
@@ -2130,32 +2133,32 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
     </row>
     <row r="5" ht="32" customHeight="1">
       <c r="A5" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" s="15">
         <v>2</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s" s="6">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G5" s="16"/>
     </row>
@@ -2166,53 +2169,53 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
     </row>
     <row r="7" ht="48" customHeight="1">
       <c r="A7" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" s="15">
         <v>3</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s" s="6">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7" s="16"/>
     </row>
     <row r="8" ht="16" customHeight="1">
       <c r="A8" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="15">
         <v>3</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s" s="6">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="16"/>
     </row>
@@ -2223,286 +2226,286 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
     <row r="10" ht="32" customHeight="1">
       <c r="A10" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" s="15">
         <v>3</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s" s="6">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G10" s="16"/>
     </row>
     <row r="11" ht="16" customHeight="1">
       <c r="A11" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="15">
         <v>3</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s" s="6">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="16"/>
     </row>
     <row r="12" ht="32" customHeight="1">
       <c r="A12" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="15">
         <v>3</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s" s="6">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G12" s="16"/>
     </row>
     <row r="13" ht="48" customHeight="1">
       <c r="A13" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="15">
         <v>3</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F13" t="s" s="6">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G13" t="s" s="6">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" ht="16" customHeight="1">
       <c r="A14" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="15">
         <v>3</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F14" t="s" s="6">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G14" s="16"/>
     </row>
     <row r="15" ht="80" customHeight="1">
       <c r="A15" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="15">
         <v>3</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s" s="6">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G15" s="16"/>
     </row>
     <row r="16" ht="80" customHeight="1">
       <c r="A16" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="15">
         <v>3</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s" s="6">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G16" s="16"/>
     </row>
     <row r="17" ht="80" customHeight="1">
       <c r="A17" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="15">
         <v>3</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s" s="6">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G17" s="16"/>
     </row>
     <row r="18" ht="16" customHeight="1">
       <c r="A18" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="15">
         <v>3</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F18" t="s" s="6">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G18" s="16"/>
     </row>
     <row r="19" ht="96" customHeight="1">
       <c r="A19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="15">
         <v>3</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F19" t="s" s="6">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G19" s="16"/>
     </row>
     <row r="20" ht="16" customHeight="1">
       <c r="A20" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="15">
         <v>3</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s" s="6">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G20" s="16"/>
     </row>
     <row r="21" ht="16" customHeight="1">
       <c r="A21" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="15">
         <v>3</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F21" t="s" s="6">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G21" s="16"/>
     </row>
     <row r="22" ht="16" customHeight="1">
       <c r="A22" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="15">
         <v>3</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F22" t="s" s="6">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G22" s="16"/>
     </row>
@@ -2513,74 +2516,74 @@
       </c>
       <c r="C23" s="4"/>
       <c r="D23" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
     </row>
     <row r="24" ht="16" customHeight="1">
       <c r="A24" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="15">
         <v>3</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F24" t="s" s="6">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G24" s="16"/>
     </row>
     <row r="25" ht="192" customHeight="1">
       <c r="A25" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" s="15">
         <v>3</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F25" t="s" s="6">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G25" s="16"/>
     </row>
     <row r="26" ht="16" customHeight="1">
       <c r="A26" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" s="15">
         <v>3</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F26" t="s" s="6">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G26" s="16"/>
     </row>
@@ -2591,200 +2594,200 @@
       </c>
       <c r="C27" s="4"/>
       <c r="D27" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
     </row>
     <row r="28" ht="16" customHeight="1">
       <c r="A28" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="15">
         <v>3</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F28" t="s" s="6">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G28" s="16"/>
     </row>
     <row r="29" ht="32" customHeight="1">
       <c r="A29" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" s="15">
         <v>3</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F29" t="s" s="6">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G29" s="16"/>
     </row>
     <row r="30" ht="16" customHeight="1">
       <c r="A30" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" s="15">
         <v>3</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F30" t="s" s="6">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G30" s="16"/>
     </row>
     <row r="31" ht="48" customHeight="1">
       <c r="A31" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" s="15">
         <v>3</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F31" t="s" s="6">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G31" s="16"/>
     </row>
     <row r="32" ht="16" customHeight="1">
       <c r="A32" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" s="15">
         <v>3</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F32" t="s" s="6">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G32" s="16"/>
     </row>
     <row r="33" ht="16" customHeight="1">
       <c r="A33" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" s="15">
         <v>3</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F33" t="s" s="6">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G33" s="16"/>
     </row>
     <row r="34" ht="32" customHeight="1">
       <c r="A34" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34" s="15">
         <v>3</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F34" t="s" s="6">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G34" s="16"/>
     </row>
     <row r="35" ht="16" customHeight="1">
       <c r="A35" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="15">
         <v>3</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F35" t="s" s="6">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G35" s="16"/>
     </row>
     <row r="36" ht="16" customHeight="1">
       <c r="A36" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="15">
         <v>3</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F36" t="s" s="6">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G36" s="16"/>
     </row>
@@ -2795,10 +2798,10 @@
       </c>
       <c r="C37" s="4"/>
       <c r="D37" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
@@ -2810,10 +2813,10 @@
       </c>
       <c r="C38" s="4"/>
       <c r="D38" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
@@ -2825,74 +2828,74 @@
       </c>
       <c r="C39" s="4"/>
       <c r="D39" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
     </row>
     <row r="40" ht="16" customHeight="1">
       <c r="A40" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B40" s="15">
         <v>4</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F40" t="s" s="6">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G40" s="16"/>
     </row>
     <row r="41" ht="32" customHeight="1">
       <c r="A41" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B41" s="15">
         <v>4</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F41" t="s" s="6">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G41" s="16"/>
     </row>
     <row r="42" ht="64" customHeight="1">
       <c r="A42" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B42" s="15">
         <v>4</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D42" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F42" t="s" s="6">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G42" s="16"/>
     </row>
@@ -2903,156 +2906,156 @@
       </c>
       <c r="C43" s="4"/>
       <c r="D43" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
     </row>
     <row r="44" ht="48" customHeight="1">
       <c r="A44" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B44" s="15">
         <v>4</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D44" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E44" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F44" t="s" s="6">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G44" s="16"/>
     </row>
     <row r="45" ht="32" customHeight="1">
       <c r="A45" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B45" s="15">
         <v>4</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E45" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F45" t="s" s="6">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G45" s="16"/>
     </row>
     <row r="46" ht="16" customHeight="1">
       <c r="A46" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B46" s="15">
         <v>4</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E46" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F46" t="s" s="6">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G46" s="16"/>
     </row>
     <row r="47" ht="96" customHeight="1">
       <c r="A47" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B47" s="15">
         <v>4</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D47" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F47" t="s" s="6">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G47" s="16"/>
     </row>
     <row r="48" ht="112" customHeight="1">
       <c r="A48" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B48" s="15">
         <v>4</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D48" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="6">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G48" s="16"/>
     </row>
     <row r="49" ht="16" customHeight="1">
       <c r="A49" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B49" s="15">
         <v>4</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E49" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F49" t="s" s="6">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G49" s="16"/>
     </row>
     <row r="50" ht="16" customHeight="1">
       <c r="A50" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B50" s="15">
         <v>4</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D50" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F50" t="s" s="6">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G50" s="16"/>
     </row>
@@ -3063,137 +3066,137 @@
       </c>
       <c r="C51" s="4"/>
       <c r="D51" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F51" s="16"/>
       <c r="G51" s="16"/>
     </row>
     <row r="52" ht="32" customHeight="1">
       <c r="A52" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B52" s="15">
         <v>3</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D52" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F52" t="s" s="6">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G52" s="16"/>
     </row>
     <row r="53" ht="16" customHeight="1">
       <c r="A53" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B53" s="15">
         <v>3</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D53" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E53" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F53" t="s" s="6">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G53" s="16"/>
     </row>
     <row r="54" ht="32" customHeight="1">
       <c r="A54" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B54" s="15">
         <v>3</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D54" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E54" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F54" t="s" s="6">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G54" s="16"/>
     </row>
     <row r="55" ht="16" customHeight="1">
       <c r="A55" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B55" s="15">
         <v>3</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D55" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E55" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F55" t="s" s="6">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G55" s="16"/>
     </row>
     <row r="56" ht="32" customHeight="1">
       <c r="A56" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B56" s="15">
         <v>3</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D56" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E56" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F56" t="s" s="6">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G56" s="16"/>
     </row>
     <row r="57" ht="16" customHeight="1">
       <c r="A57" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B57" s="15">
         <v>3</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D57" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E57" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F57" t="s" s="6">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G57" s="16"/>
     </row>
@@ -5878,39 +5881,39 @@
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
     <row r="2" ht="65.55" customHeight="1">
       <c r="A2" t="s" s="6">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B2" t="s" s="6">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C2" t="s" s="6">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" ht="39.55" customHeight="1">
       <c r="A3" t="s" s="6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s" s="6">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C3" t="s" s="6">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
